--- a/GUATEMALA/Género/Datos mujer Unicef 2017 Guatemala.xlsx
+++ b/GUATEMALA/Género/Datos mujer Unicef 2017 Guatemala.xlsx
@@ -5,38 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\GUATEMALA\Género\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C745C-14E7-48DB-A1F8-C8E1C491B6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FB0D13-CF4F-4B59-A730-06B8E76759F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9C02BFD1-9736-4D22-8B47-100FDC63AB98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9C02BFD1-9736-4D22-8B47-100FDC63AB98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="(Original) Datos Mujer 2017" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos Mujer 2017" sheetId="4" r:id="rId2"/>
+    <sheet name="Definiciones" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t xml:space="preserve">
 Esperanza de vida: mujeres como % de hombres 2016</t>
@@ -489,19 +480,202 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Guatemala </t>
-  </si>
-  <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>Esperanza de vida: mujeres como % de hombres 2016</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Dato</t>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Sub Variable</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2011–2016*</t>
+  </si>
+  <si>
+    <t>Tasa bruta de matriculación</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>Secundaria</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal (%):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al menos cuatro visitas </t>
+  </si>
+  <si>
+    <t>Atención al parto (%):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistente de parto calificado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2013–2016*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parto en institución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesárea </t>
+  </si>
+  <si>
+    <t>Control de salud posparto (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + para recién nacidos</t>
+  </si>
+  <si>
+    <t>+ para madres</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Esperanza de vida (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Tasa de alfabetización de adultos (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Ratios de matrícula (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Tasa de supervivencia hasta el último grado de primaria (mujeres como % de hombres)</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos (%)</t>
+  </si>
+  <si>
+    <t>Al menos una visita</t>
+  </si>
+  <si>
+    <t>† Reportados</t>
+  </si>
+  <si>
+    <t>† Ajustados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">† Riesgo de por vida de muerte materna (1 en :) </t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>– Datos no disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x Datos refieren a años o períodos distintos a los que se especifican en el título de las columnas. Esos datos no son incluidos en los cálculos de promedios regionales o globales. Datos de años anteriores al 2000 no son mostrados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + El método de recolección de datos para este indicador varía en las diferentes encuestas y puede afectar la comparabilidad de los estimados de cobertura. Para una explicación más detallada ver Nota General en el Data, página XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">† Los datos de mortalidad materna en la columna titulada "reportados" refieren a datos reportados por las autoridades nacionales. Los datos en la columna de "ajustados" refieren a  los estimados de mortalidad materna de Inter-Agencias de las Naciones Unidas en 2015. Periódicamente, el Grupo de Estimación de Mortalidad Materna de las Inter-Agencias de las Naciones Unidas (OMS, UNICEF, UNFPA, Banco Mundial y la División de Población de las Naciones Unidas) producde sets internacionalmente comparables de datos de mortalidad materna que reflejan el problema de la falta de reporte y la clasificación errónea de muertes maternales, incluyendo también estimados para países que no tienen datos. Por favor observe que dada una metodología en evolución,  estos valores no son comparables con los valores "ajustados" de reportes anteriores sobre mortalidad maternal. Series de tiempo comparables para los años 1990, 1995, 2000, 2005 y 2015 están disponibles en  &lt; http://data.unicef.org/maternal-health/maternal-mortality.html&gt;.  </t>
+  </si>
+  <si>
+    <t>* Datos refieren al año disponible más reciente durante el período especificado en el título de las columnas</t>
+  </si>
+  <si>
+    <t>** Excluye China</t>
+  </si>
+  <si>
+    <t>‡ Excluye India</t>
+  </si>
+  <si>
+    <t>Definiciones de los indicadores:</t>
+  </si>
+  <si>
+    <t>Expectativa de vida: número de años que recién nacidos vivirían si estuvieran sujetos a los riesgos de mortalidad que prevalecen para la sección transversal de la población al momento de su nacimiento.</t>
+  </si>
+  <si>
+    <t>Tasa de alfabetización de adultos: porcentaje de la población de 15 años y más que pueden leer y escribir, entendiendo una declaración corta y simple sobre su vida cotidiana.</t>
+  </si>
+  <si>
+    <t>Tasa bruta de matriculación en primaria: matriculación total en la escuela primaria, sin importar la edad, expresada como el porcentaje de la población oficial en edad de ir a primaria</t>
+  </si>
+  <si>
+    <t>Tasa bruta de matriculación en secundaria: matriculación total en la escuela primaria, sin importar la edad, expresada como el porcentaje de la población oficial en edad de ir a secundaria</t>
+  </si>
+  <si>
+    <t>Tasa de supervivencia hasta el último grado de primaria: porcentaje de niños entrando al primer años de primaria que eventualmente alcalzan el útltimo año (datos administrativos)</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal: porcentaje de mujeres de 15-49 años atendidas al menos una vez durante el embarazo por personal de salud experto (doctor, enfermera o matrona) y el porcentaje atendido por cualquier proveedor al menos 4 veces</t>
+  </si>
+  <si>
+    <t>Asistente de parto calificado: porcentaje de nacimientos atendidos por personal de salud experto (doctor, enfermera, matrona)</t>
+  </si>
+  <si>
+    <t>Parto en institución: porcentaje de mujeres de 15-49 años que dieron a luz en un establecimiento de salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesárea: porcentaje de nacimientos realizados por cesárea. </t>
+  </si>
+  <si>
+    <t>Control de salud pospartos para recién nacidos: porcentaje de los últimos nacidos vivos en los últimos 2 años que recibieron un chequeo médico dentro de los 2 días posteriores al parto. Chequeo de salud se refiere a un chequeo de salud mientras se encuentra en el centro de salud o en el hogar después del parto o una visita posnatal.</t>
+  </si>
+  <si>
+    <t>Control de salud pospartos para madres: Porcentaje de mujeres de 15 a 49 años que recibieron un chequeo médico dentro de los 2 días posteriores al parto de su hijo vivo más reciente en los últimos 2 años. Chequeo de salud se refiere a un chequeo de salud mientras se encuentra en el centro de salud o en el hogar después del parto o una visita posnatal.</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna: Número de muertes de mujeres por causas relacionadas con el embarazo por cada 100.000 nacidos vivos durante el mismo período. La columna "reportados" muestra las cifras informadas por los países que no son ajustadas por falta de información y clasificación errónea. Para la columna "ajustados", consulte la nota de (†). Los valores de la razón de mortalidad materna se han redondeado de acuerdo con el siguiente esquema: Informado: &lt;100, sin redondeo; 100–999, redondeado a la decena más cercana; y&gt; 1000, redondeado al 100 más cercano. Ajustado: &lt;1000, redondeado al 1 más cercano; y ≥ 1000, redondeado a la decena más cercana.</t>
+  </si>
+  <si>
+    <t>Riesgo de por vida de mortalidad materna: El riesgo de muerte materna a lo largo de la vida tiene en cuenta tanto la probabilidad de quedar embarazada como la probabilidad de morir como resultado de ese embarazo, acumulada a lo largo de los años reproductivos de la mujer. Los valores de riesgo de por vida se han redondeado de acuerdo con el siguiente esquema: &lt;1000, redondeado al 1 más cercano; y ≥ 1000, redondeado a la decena más cercana.</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos: porcentaje de mujeres en edad reproductiva (15-49 años) que satisfacen sus necesidades de planificación familiar con métodos modernos</t>
+  </si>
+  <si>
+    <t>Expectativa de vida: United Nations Population Division.</t>
+  </si>
+  <si>
+    <t>Alfabetización en adultos: UNESCO Institute for Statistics (UIS).</t>
+  </si>
+  <si>
+    <t>Matriculación en primaria y secundaria: UIS.</t>
+  </si>
+  <si>
+    <t>Tasa de supervivencia hasta el último grado de primaria: UIS.</t>
+  </si>
+  <si>
+    <t>Principales fuentes de datos:</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos: SDG Global Database based on Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS), Reproductive Health Surveys, other national surveys, National Health Information Systems (HIS).</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna (reportados): Nationally representative sources, including household surveys and vital registration.</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna (ajustados): United Nations Maternal Mortality Estimation Inter-agency Group (WHO, UNICEF, UNFPA, The World Bank and the United Nations Population Division).</t>
+  </si>
+  <si>
+    <t>Riesgo de por vida de mortalidad materna: United Nations Maternal Mortality Estimation Inter-agency Group (WHO, UNICEF, UNFPA, The World Bank and the United Nations Population Division).</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal: DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Atención al parto calificada: Joint UNICEF/WHO SBA database, November 2017 update, based on DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Parto en institución: DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Cesárea: DHS, MICS and other nationally representative sources.</t>
+  </si>
+  <si>
+    <t>Control posparto para recién nacidos y madres: DHS and MICS.</t>
   </si>
 </sst>
 </file>
@@ -511,7 +685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +731,15 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -588,7 +771,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -631,10 +814,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,6 +835,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A53E4FB1-2EE2-45BC-B670-15D4E497DB8C}" name="Datos_Mujer_2017_GT" displayName="Datos_Mujer_2017_GT" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17" xr:uid="{71FCBCC5-BD5D-4E54-8ABA-A2B858EC69BA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E3583F13-031B-4531-86E5-1FEC95E904C8}" name="Categoría"/>
+    <tableColumn id="2" xr3:uid="{367F046A-9114-4E08-B8A2-6CCC0B60357D}" name="Variable"/>
+    <tableColumn id="3" xr3:uid="{ABA9D854-90C3-4829-864C-5B10524E9E40}" name="Sub Variable"/>
+    <tableColumn id="4" xr3:uid="{9AFE5E21-D85E-4D12-B047-33CBF863415B}" name="Fecha"/>
+    <tableColumn id="5" xr3:uid="{091C99D7-7DF4-4294-B0C0-659008BAEB49}" name="Cantidad"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,9 +1154,9 @@
       <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="92" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="108" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>109.15019593261061</v>
       </c>
@@ -1066,208 +1262,260 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0EAAF2-9BDD-409A-A3F6-EDE6898D82CF}">
-  <dimension ref="B2:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE7F37-FC69-4E5A-AD8C-C2388224D3E6}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="54.90625" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="3">
+        <v>109.15019593261061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="3">
-        <v>109.15019593261061</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="E3" s="3">
         <v>88.028999999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="23" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3">
         <v>96.139569041455516</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="23" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3">
         <v>93.317999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="23" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3">
         <v>99.138619897697879</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3">
         <v>65.5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3">
         <v>91.3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3">
         <v>86.2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3">
         <v>65.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3">
         <v>26.3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
         <v>8.1</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>2015</v>
+      </c>
+      <c r="E17" s="5">
         <v>330</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1275,13 +1523,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C663659-DDF9-47A2-8B4E-231BA87F2AFB}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AA39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1295,7 +1543,9 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="L1" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="M1" s="9"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -1312,7 +1562,7 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1576,9 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
       <c r="M2" s="9"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1343,7 +1595,7 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1609,9 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -1374,7 +1628,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1388,7 +1642,9 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1405,7 +1661,7 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
@@ -1415,28 +1671,30 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1708,9 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1467,7 +1727,7 @@
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1481,7 +1741,9 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1498,7 +1760,7 @@
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +1774,9 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1529,7 +1793,7 @@
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1558,7 +1822,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
@@ -1572,7 +1836,9 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1589,7 +1855,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
@@ -1603,7 +1869,9 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1620,7 +1888,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
@@ -1634,7 +1902,9 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -1651,7 +1921,7 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
@@ -1665,7 +1935,9 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" t="s">
+        <v>93</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -1682,7 +1954,7 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1968,9 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="L14" t="s">
+        <v>94</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -1713,7 +1987,7 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +2001,9 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -1744,7 +2020,7 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +2034,9 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="L16" t="s">
+        <v>104</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -1775,7 +2053,7 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +2067,9 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -1806,7 +2086,7 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
@@ -1820,7 +2100,9 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="L18" t="s">
+        <v>97</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -1837,7 +2119,7 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
@@ -1851,7 +2133,9 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -1868,7 +2152,7 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
@@ -1882,7 +2166,9 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -1899,7 +2185,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>35</v>
       </c>
@@ -1913,7 +2199,9 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -1930,7 +2218,7 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>36</v>
       </c>
@@ -1944,7 +2232,9 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="L22" t="s">
+        <v>101</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -1961,7 +2251,7 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
@@ -1975,7 +2265,9 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="L23" t="s">
+        <v>102</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -1992,7 +2284,7 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>38</v>
       </c>
@@ -2006,7 +2298,9 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="L24" t="s">
+        <v>103</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -2023,7 +2317,7 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2052,7 +2346,7 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
@@ -2066,7 +2360,9 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -2083,7 +2379,7 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>40</v>
       </c>
@@ -2097,7 +2393,9 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="L27" t="s">
+        <v>105</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -2114,7 +2412,7 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>41</v>
       </c>
@@ -2128,7 +2426,9 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="L28" t="s">
+        <v>106</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -2145,7 +2445,7 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>42</v>
       </c>
@@ -2159,7 +2459,9 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="L29" t="s">
+        <v>107</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -2176,7 +2478,7 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>43</v>
       </c>
@@ -2190,7 +2492,9 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="L30" t="s">
+        <v>108</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -2207,7 +2511,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>44</v>
       </c>
@@ -2221,7 +2525,9 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="L31" t="s">
+        <v>110</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -2238,7 +2544,7 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>45</v>
       </c>
@@ -2252,7 +2558,9 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -2269,7 +2577,7 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>46</v>
       </c>
@@ -2283,7 +2591,9 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="L33" t="s">
+        <v>115</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -2300,7 +2610,7 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>47</v>
       </c>
@@ -2314,7 +2624,9 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" t="s">
+        <v>116</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -2331,7 +2643,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>48</v>
       </c>
@@ -2345,7 +2657,9 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="L35" t="s">
+        <v>117</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2362,7 +2676,7 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>49</v>
       </c>
@@ -2376,7 +2690,9 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="L36" t="s">
+        <v>118</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -2393,7 +2709,7 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
@@ -2407,7 +2723,9 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="L37" t="s">
+        <v>111</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -2424,7 +2742,7 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>51</v>
       </c>
@@ -2438,7 +2756,9 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="L38" t="s">
+        <v>112</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -2455,7 +2775,7 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>52</v>
       </c>
@@ -2469,7 +2789,9 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="L39" t="s">
+        <v>113</v>
+      </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2487,9 +2809,6 @@
       <c r="AA39" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:AA5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>